--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_ward34_resonant.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554202</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048308</v>
+        <v>-1.130199521952467</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037383011</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552601</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -575,22 +575,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.1016095295408</v>
+        <v>4.282962610288478</v>
       </c>
       <c r="C4">
-        <v>1250.596438803548</v>
+        <v>148.3661769587493</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354156</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.89843869796007</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239495</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534569</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469733</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736209</v>
+        <v>25.98965116739709</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.291705603754851</v>
+        <v>0.2917056037512945</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707026</v>
+        <v>0.890687633264438</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062569</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.7794727728209</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.9526279648187992</v>
+        <v>0.9526279648032092</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133814</v>
+        <v>0.9526279648047552</v>
       </c>
       <c r="Q4">
-        <v>3.81536919900101E-11</v>
+        <v>-1.248457903435956E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942852</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136788</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605474918434074E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136791</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605550451296864E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869522</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267038</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885612</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551817</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943077</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568747</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568747</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869522</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267038</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885612</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551817</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943077</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568747</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568747</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991616</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411365</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337448</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.990070340137079</v>
       </c>
       <c r="O3">
-        <v>0.361720183504723</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384565</v>
+        <v>0.7649715466411114</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213081</v>
+        <v>8.150888684274472</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897489</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851928</v>
+        <v>0.8660254037883341</v>
       </c>
       <c r="Q4">
-        <v>5.88501378576173E-11</v>
+        <v>1.723444967309476E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080574264738543E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798929</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080587363280845E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991616</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411365</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337448</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.990070340137079</v>
       </c>
       <c r="O3">
-        <v>0.361720183504723</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384565</v>
+        <v>0.7649715466411114</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213081</v>
+        <v>8.150888684274472</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897489</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851928</v>
+        <v>0.8660254037883341</v>
       </c>
       <c r="Q4">
-        <v>5.88501378576173E-11</v>
+        <v>1.723444967309476E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080574264738543E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798929</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080587363280845E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388959</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566595</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941322</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474869</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912728</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775462</v>
       </c>
       <c r="P4">
-        <v>0.9778568560687847</v>
+        <v>0.8529812840863313</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155595</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632606</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863944</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196766</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388959</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566595</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941322</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474869</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912728</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775462</v>
       </c>
       <c r="P4">
-        <v>0.9778568560687847</v>
+        <v>0.8529812840863313</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155595</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632606</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863944</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196766</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586492</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847538</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995177</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.900880158963784</v>
+        <v>0.5017839789834531</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P3">
-        <v>1.021970909657363</v>
+        <v>0.8775850755570951</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419491</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006878</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.464719448601</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908806</v>
+        <v>5.270261429553178</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627071</v>
+        <v>60.8557371010446</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567652</v>
+        <v>1.849825689567653</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757675</v>
+        <v>0.7325309365756885</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801476</v>
+        <v>0.6277319162686219</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834473</v>
+        <v>0.6277319163639878</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738873</v>
+        <v>2.898438697959885</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374666</v>
+        <v>0.4179741834732595</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P4">
-        <v>0.965993269363505</v>
+        <v>0.7534809345991481</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002012</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116008</v>
       </c>
       <c r="T4">
-        <v>14.53735578908806</v>
+        <v>5.270261429553178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901621</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867733</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998026</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124764</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901621</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867733</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998028</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124764</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586492</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847538</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995177</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.900880158963784</v>
+        <v>0.5017839789834531</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P3">
-        <v>1.021970909657363</v>
+        <v>0.8775850755570951</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419491</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006878</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.464719448601</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908806</v>
+        <v>5.270261429553178</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627071</v>
+        <v>60.8557371010446</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567652</v>
+        <v>1.849825689567653</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757675</v>
+        <v>0.7325309365756885</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801476</v>
+        <v>0.6277319162686219</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834473</v>
+        <v>0.6277319163639878</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738873</v>
+        <v>2.898438697959885</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374666</v>
+        <v>0.4179741834732595</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P4">
-        <v>0.965993269363505</v>
+        <v>0.7534809345991481</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002012</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116008</v>
       </c>
       <c r="T4">
-        <v>14.53735578908806</v>
+        <v>5.270261429553178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901621</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867733</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998026</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124764</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901621</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852249</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867733</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998028</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124764</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.9449951101369803</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069109</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117793</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567652</v>
+        <v>1.849825689567653</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757675</v>
+        <v>0.7325309365756885</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801476</v>
+        <v>0.6277319162686219</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834473</v>
+        <v>0.6277319163639878</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738873</v>
+        <v>2.898438697959885</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.899313132462415</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043305</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654363</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063195</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654364</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063195</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554202</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048308</v>
+        <v>-1.130199521952467</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037383011</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552601</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4450,22 +4450,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.1016095295408</v>
+        <v>4.282962610288478</v>
       </c>
       <c r="C4">
-        <v>1250.596438803548</v>
+        <v>148.3661769587493</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354156</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.89843869796007</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239495</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.9449951101369803</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069109</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117793</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567652</v>
+        <v>1.849825689567653</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757675</v>
+        <v>0.7325309365756885</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801476</v>
+        <v>0.6277319162686219</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834473</v>
+        <v>0.6277319163639878</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738873</v>
+        <v>2.898438697959885</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.899313132462415</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043305</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654363</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063195</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654364</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063195</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398245</v>
+        <v>0.9028326587833735</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958764</v>
+        <v>0.9626941529704616</v>
       </c>
       <c r="Q2">
-        <v>29.87513500976641</v>
+        <v>29.46991355217287</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.4370022449748</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285289</v>
+        <v>0.5363499856580279</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946229</v>
+        <v>0.9313780817015826</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758867</v>
+        <v>23.06203797024821</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001212</v>
+        <v>-89.99999999999697</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809594</v>
+        <v>3.902567407462476</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789598</v>
+        <v>45.06296686458241</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487453</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263025</v>
+        <v>0.7246530378262162</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274869</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631499</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392126</v>
+        <v>1.11375188023327</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637048</v>
+        <v>3.006397543745374</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747503</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.8871827881257467</v>
+        <v>0.7694482201421944</v>
       </c>
       <c r="Q4">
-        <v>32.4861756412508</v>
+        <v>45.38254385680924</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241675</v>
       </c>
       <c r="T4">
-        <v>7.591035404809594</v>
+        <v>3.902567407462475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946171</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323435</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.38254385708335</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999974</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946171</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323435</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708336</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999974</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398245</v>
+        <v>0.9028326587833735</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958764</v>
+        <v>0.9626941529704616</v>
       </c>
       <c r="Q2">
-        <v>29.87513500976641</v>
+        <v>29.46991355217287</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.4370022449748</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285289</v>
+        <v>0.5363499856580279</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946229</v>
+        <v>0.9313780817015826</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758867</v>
+        <v>23.06203797024821</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001212</v>
+        <v>-89.99999999999697</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809594</v>
+        <v>3.902567407462476</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789598</v>
+        <v>45.06296686458241</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487453</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263025</v>
+        <v>0.7246530378262162</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274869</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631499</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392126</v>
+        <v>1.11375188023327</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637048</v>
+        <v>3.006397543745374</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747503</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.8871827881257467</v>
+        <v>0.7694482201421944</v>
       </c>
       <c r="Q4">
-        <v>32.4861756412508</v>
+        <v>45.38254385680924</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241675</v>
       </c>
       <c r="T4">
-        <v>7.591035404809594</v>
+        <v>3.902567407462475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946171</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323435</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.38254385708335</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999974</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946171</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323435</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708336</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999974</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985385</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.989571189974962</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042646</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661014</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000749</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749405</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487453</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263025</v>
+        <v>0.7246530378262162</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274869</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631499</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392126</v>
+        <v>1.11375188023327</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637048</v>
+        <v>3.006397543745374</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636923</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740589</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544031</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.49316412559806</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543915</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.902109445473709</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.49316412559807</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543915</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985385</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.989571189974962</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042646</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661014</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000749</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749405</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487453</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263025</v>
+        <v>0.7246530378262162</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274869</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631499</v>
+        <v>3.006397543745615</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392126</v>
+        <v>1.11375188023327</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637048</v>
+        <v>3.006397543745374</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636923</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740589</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544031</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999659</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.49316412559806</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543915</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.902109445473709</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.49316412559807</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543915</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576275</v>
+        <v>0.9380319009600879</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501228</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.13019952196431</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987741</v>
+        <v>0.7662234980466636</v>
       </c>
       <c r="O3">
-        <v>0.291705603753448</v>
+        <v>0.291705603751569</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791415</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460738</v>
+        <v>-8.463037977617233</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.171377354173</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037348</v>
       </c>
       <c r="D4">
-        <v>29.44496471876576</v>
+        <v>3.316348281737784</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570273</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375726</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187634</v>
+        <v>0.6168272759030892</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132367</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386518</v>
+        <v>-23.63454170168719</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443382</v>
+        <v>6.200555778018471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045766</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990193</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045766</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576275</v>
+        <v>0.9380319009600879</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501228</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.13019952196431</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987741</v>
+        <v>0.7662234980466636</v>
       </c>
       <c r="O3">
-        <v>0.291705603753448</v>
+        <v>0.291705603751569</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791415</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460738</v>
+        <v>-8.463037977617233</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.171377354173</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037348</v>
       </c>
       <c r="D4">
-        <v>29.44496471876576</v>
+        <v>3.316348281737784</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570273</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375726</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187634</v>
+        <v>0.6168272759030892</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132367</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386518</v>
+        <v>-23.63454170168719</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443382</v>
+        <v>6.200555778018471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045766</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990193</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045766</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.038372779870299</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401246</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679279</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487199</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485564</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.802015620938143</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775103</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702198</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013553</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.39280229978566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467661</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392322</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802837</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726498</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.5296738996216</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467661</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392322</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802837</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726497</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.5296738996216</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.038372779870299</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401246</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679279</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487199</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485564</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.802015620938143</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775103</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702198</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013553</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.39280229978566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467661</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392322</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802837</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726498</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.5296738996216</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467661</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392322</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802837</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726497</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.5296738996216</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723632</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405782</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326352</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627334</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756785</v>
+        <v>0.865479553953491</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044312</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>0.7389570602306202</v>
+        <v>0.7173623910941315</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128169</v>
+        <v>-3.40066276128366</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249183</v>
+        <v>-129.0915432241611</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104195</v>
       </c>
       <c r="D4">
-        <v>18.99310347626934</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998698</v>
+        <v>52.63298961191627</v>
       </c>
       <c r="G4">
-        <v>219.3134680954104</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070107</v>
+        <v>0.6716728149593484</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024453</v>
+        <v>0.6716728149604604</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957505</v>
+        <v>-16.93689964820447</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512649</v>
       </c>
       <c r="T4">
-        <v>4.491848404738626</v>
+        <v>3.705973963892703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477886</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724258</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647821</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.063100351154</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477886</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724261</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647822</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424149</v>
+        <v>-1.342925561278418</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386142</v>
       </c>
       <c r="G3">
-        <v>-0.610252368029666</v>
+        <v>-9.168679204911163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8451,22 +8451,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696608</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474864</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354156</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.89843869796007</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364422</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014392</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375315</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.529673899666543</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375315</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.529673899666543</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723632</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405782</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326352</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627334</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756785</v>
+        <v>0.865479553953491</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044312</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>0.7389570602306202</v>
+        <v>0.7173623910941315</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128169</v>
+        <v>-3.40066276128366</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249183</v>
+        <v>-129.0915432241611</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104195</v>
       </c>
       <c r="D4">
-        <v>18.99310347626934</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998698</v>
+        <v>52.63298961191627</v>
       </c>
       <c r="G4">
-        <v>219.3134680954104</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070107</v>
+        <v>0.6716728149593484</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024453</v>
+        <v>0.6716728149604604</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957505</v>
+        <v>-16.93689964820447</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512649</v>
       </c>
       <c r="T4">
-        <v>4.491848404738626</v>
+        <v>3.705973963892703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477886</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724258</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647821</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.063100351154</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477886</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724261</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647822</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9955857406147312</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.958104579130341</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278992</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162777</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666997</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144055</v>
+        <v>0.8764516590625256</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481584</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321739</v>
+        <v>14.4286508313211</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470356</v>
+        <v>0.8862366025193015</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934287</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.8378278209627846</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015008</v>
+        <v>19.95292512464316</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042473</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640764</v>
+        <v>1.143601227408609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191701</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677864</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505616</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191701</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677864</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505616</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9955857406147312</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.958104579130341</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278992</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162777</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666997</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144055</v>
+        <v>0.8764516590625256</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481584</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321739</v>
+        <v>14.4286508313211</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>3.551638344487423</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263042</v>
+        <v>0.7246530378264698</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376312</v>
+        <v>1.113751880246194</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581895</v>
+        <v>3.006397543768194</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.113751880233261</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745575</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470356</v>
+        <v>0.8862366025193015</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934287</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.8378278209627846</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015008</v>
+        <v>19.95292512464316</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042473</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640764</v>
+        <v>1.143601227408609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191701</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677864</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505616</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191701</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677864</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505616</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424149</v>
+        <v>-1.342925561278418</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386142</v>
       </c>
       <c r="G3">
-        <v>-0.610252368029666</v>
+        <v>-9.168679204911163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9757,22 +9757,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696608</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474864</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354156</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.89843869796007</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364422</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014392</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375315</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.529673899666543</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375315</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.529673899666543</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.8500049525313291</v>
       </c>
       <c r="G2">
-        <v>-2.65381631338312</v>
+        <v>-2.653816313408766</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011311</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576344</v>
+        <v>-39.09154322526803</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9908,22 +9908,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204673</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252858</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316983</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450856E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450856E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.8500049525313291</v>
       </c>
       <c r="G2">
-        <v>-2.65381631338312</v>
+        <v>-2.653816313408766</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011311</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576344</v>
+        <v>-39.09154322526803</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10059,22 +10059,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204673</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252858</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316983</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450856E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450856E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269168</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359997</v>
+        <v>-1.557899718992041</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165274</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879496</v>
+        <v>-9.652735617430407</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10210,22 +10210,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252858</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896069</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986817</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953917</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.634345069818468</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953917</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.634345069818468</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269168</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359997</v>
+        <v>-1.557899718992041</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165274</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879496</v>
+        <v>-9.652735617430407</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10361,22 +10361,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252858</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896069</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986817</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953917</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.634345069818468</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953917</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.634345069818468</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534569</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469733</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736209</v>
+        <v>25.98965116739709</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.291705603754851</v>
+        <v>0.2917056037512945</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707026</v>
+        <v>0.890687633264438</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062569</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.7794727728209</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>1.849825689567639</v>
+        <v>1.84982568956763</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365759273</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802831</v>
+        <v>0.6277319163571272</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680178</v>
+        <v>2.898438697948315</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639696</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738894</v>
+        <v>2.898438697960009</v>
       </c>
       <c r="N4">
-        <v>0.9526279648187992</v>
+        <v>0.9526279648032092</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133814</v>
+        <v>0.9526279648047552</v>
       </c>
       <c r="Q4">
-        <v>3.81536919900101E-11</v>
+        <v>-1.248457903435956E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942852</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136788</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605474918434074E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136791</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605550451296864E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_ward34_resonant.xlsx
@@ -755,19 +755,19 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574443</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468704</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739709</v>
+        <v>25.98965116739704</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201606</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214669995</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.2917056037512894</v>
       </c>
       <c r="P3">
-        <v>0.890687633264438</v>
+        <v>0.8906876332644356</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062569</v>
+        <v>7.09132438906234</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550814</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.70915442393711</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.70915442393711</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251963</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251963</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032092</v>
+        <v>0.952627964803211</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047552</v>
+        <v>0.952627964804754</v>
       </c>
       <c r="Q4">
-        <v>-1.248457903435956E-11</v>
+        <v>-1.281026669688826E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999808</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942852</v>
+        <v>0.9526279647942872</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136788</v>
+        <v>0.9526279648136777</v>
       </c>
       <c r="Q5">
-        <v>4.605474918434074E-10</v>
+        <v>4.602235298141837E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995315</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942872</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136791</v>
+        <v>0.9526279648136777</v>
       </c>
       <c r="Q6">
-        <v>4.605550451296864E-10</v>
+        <v>4.602235298141837E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995315</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160748</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210919</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710721</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869513</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267038</v>
+        <v>19.43181595267035</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665023</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744286</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744286</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551817</v>
+        <v>0.6233452632551808</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011539</v>
+        <v>0.9229411060011525</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943077</v>
+        <v>16.25665454943071</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376845</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568747</v>
+        <v>0.6233452632568741</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067894</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962344</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366568</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568747</v>
+        <v>0.6233452632568741</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067894</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962344</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366568</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1489,16 +1489,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160748</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210919</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710721</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869513</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267038</v>
+        <v>19.43181595267035</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665023</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675513</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744286</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744286</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551817</v>
+        <v>0.6233452632551808</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011539</v>
+        <v>0.9229411060011525</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943077</v>
+        <v>16.25665454943071</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376845</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568747</v>
+        <v>0.6233452632568741</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067894</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962344</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366568</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205488</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568747</v>
+        <v>0.6233452632568741</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067894</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962344</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366568</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525414007</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.946859830945721</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808847</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.6538163133152</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.990070340137079</v>
+        <v>0.9900703401370806</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030114</v>
+        <v>0.3617201835030094</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411114</v>
+        <v>0.7649715466411087</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274472</v>
+        <v>8.150888684274269</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241905</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833647</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.11908582551556</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.11908582551556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973909</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973909</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880054</v>
+        <v>0.866025403788007</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883341</v>
+        <v>0.8660254037883326</v>
       </c>
       <c r="Q4">
-        <v>1.723444967309476E-10</v>
+        <v>1.720087668957965E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998198</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798928</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.866025403796445</v>
       </c>
       <c r="Q5">
-        <v>1.080574264738543E-09</v>
+        <v>1.080244633934791E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798929</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.866025403796445</v>
       </c>
       <c r="Q6">
-        <v>1.080587363280845E-09</v>
+        <v>1.080244633934791E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989116</v>
       </c>
     </row>
   </sheetData>
@@ -2220,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525414007</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.946859830945721</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808847</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.6538163133152</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.990070340137079</v>
+        <v>0.9900703401370806</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030114</v>
+        <v>0.3617201835030094</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411114</v>
+        <v>0.7649715466411087</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274472</v>
+        <v>8.150888684274269</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241905</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833647</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.11908582551556</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.11908582551556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973909</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973909</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880054</v>
+        <v>0.866025403788007</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883341</v>
+        <v>0.8660254037883326</v>
       </c>
       <c r="Q4">
-        <v>1.723444967309476E-10</v>
+        <v>1.720087668957965E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998198</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798928</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.866025403796445</v>
       </c>
       <c r="Q5">
-        <v>1.080574264738543E-09</v>
+        <v>1.080244633934791E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798929</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.866025403796445</v>
       </c>
       <c r="Q6">
-        <v>1.080587363280845E-09</v>
+        <v>1.080244633934791E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989116</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359252</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095896</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222118</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751172</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766489</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566595</v>
+        <v>0.7086876959566588</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941322</v>
+        <v>0.8449321159941314</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474869</v>
+        <v>19.61176266474864</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729079</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092611</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092611</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040615</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040615</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119609</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775446</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863303</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155595</v>
+        <v>15.93288697155588</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495566</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863925</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931499</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196765</v>
+        <v>15.93288697196759</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863944</v>
+        <v>0.5367995610863925</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931499</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196766</v>
+        <v>15.93288697196759</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
   </sheetData>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359252</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095896</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222118</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751172</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766489</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566595</v>
+        <v>0.7086876959566588</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941322</v>
+        <v>0.8449321159941314</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474869</v>
+        <v>19.61176266474864</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729079</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092611</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092611</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040615</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040615</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119609</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775446</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863303</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155595</v>
+        <v>15.93288697155588</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495566</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863925</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931499</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196765</v>
+        <v>15.93288697196759</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863944</v>
+        <v>0.5367995610863925</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931499</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196766</v>
+        <v>15.93288697196759</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586492</v>
+        <v>1.099127158010351</v>
       </c>
       <c r="O2">
-        <v>1.100000023847538</v>
+        <v>1.100000023841895</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.099029531579425</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995177</v>
+        <v>30.03214677620664</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>149.9766583684362</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834531</v>
+        <v>1.095253522338418</v>
       </c>
       <c r="O3">
-        <v>1.100000023852249</v>
+        <v>1.1000000238419</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570951</v>
+        <v>1.095037313692857</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419491</v>
+        <v>30.15648382955543</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>116.464719448601</v>
+        <v>149.8629930567535</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553178</v>
+        <v>0.04858527670839221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.8557371010446</v>
+        <v>0.561014451724854</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567653</v>
+        <v>5.240325787532509</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756885</v>
+        <v>778.469760535706</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686219</v>
+        <v>0.627731916355434</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697963673</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639878</v>
+        <v>0.6277319163529693</v>
       </c>
       <c r="M4">
-        <v>2.898438697959885</v>
+        <v>2.898438697959277</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732595</v>
+        <v>1.094635336507886</v>
       </c>
       <c r="O4">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991481</v>
+        <v>1.093160598106708</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>30.25107689920082</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>104.7500506116008</v>
+        <v>149.8817219914315</v>
       </c>
       <c r="T4">
-        <v>5.270261429553178</v>
+        <v>0.04858527670839222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901621</v>
+        <v>1.094635336508041</v>
       </c>
       <c r="O5">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867733</v>
+        <v>1.093160598106769</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998026</v>
+        <v>30.25107689920176</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>104.7500506124764</v>
+        <v>149.881721991439</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901621</v>
+        <v>1.094635336508041</v>
       </c>
       <c r="O6">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867733</v>
+        <v>1.093160598106769</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998028</v>
+        <v>30.25107689920176</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>104.7500506124764</v>
+        <v>149.881721991439</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586492</v>
+        <v>1.099127158010351</v>
       </c>
       <c r="O2">
-        <v>1.100000023847538</v>
+        <v>1.100000023841895</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.099029531579425</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995177</v>
+        <v>30.03214677620664</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>149.9766583684362</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834531</v>
+        <v>1.095253522338418</v>
       </c>
       <c r="O3">
-        <v>1.100000023852249</v>
+        <v>1.1000000238419</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570951</v>
+        <v>1.095037313692857</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419491</v>
+        <v>30.15648382955543</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>116.464719448601</v>
+        <v>149.8629930567535</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553178</v>
+        <v>0.04858527670839221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.8557371010446</v>
+        <v>0.561014451724854</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567653</v>
+        <v>5.240325787532509</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756885</v>
+        <v>778.469760535706</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686219</v>
+        <v>0.627731916355434</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697963673</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639878</v>
+        <v>0.6277319163529693</v>
       </c>
       <c r="M4">
-        <v>2.898438697959885</v>
+        <v>2.898438697959277</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732595</v>
+        <v>1.094635336507886</v>
       </c>
       <c r="O4">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991481</v>
+        <v>1.093160598106708</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>30.25107689920082</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>104.7500506116008</v>
+        <v>149.8817219914315</v>
       </c>
       <c r="T4">
-        <v>5.270261429553178</v>
+        <v>0.04858527670839222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901621</v>
+        <v>1.094635336508041</v>
       </c>
       <c r="O5">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867733</v>
+        <v>1.093160598106769</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998026</v>
+        <v>30.25107689920176</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>104.7500506124764</v>
+        <v>149.881721991439</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901621</v>
+        <v>1.094635336508041</v>
       </c>
       <c r="O6">
-        <v>1.100000023852249</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867733</v>
+        <v>1.093160598106769</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998028</v>
+        <v>30.25107689920176</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>104.7500506124764</v>
+        <v>149.881721991439</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.099132701712315</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023841895</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.09905639759993</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>30.03069701128925</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>149.9761850599765</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9449951101369803</v>
+        <v>1.09529003526656</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.095180827586948</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069109</v>
+        <v>30.14893003012513</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>149.8609080801774</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141221</v>
+        <v>0.04765786957969151</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117793</v>
+        <v>0.5503056766167794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567653</v>
+        <v>5.240325787532509</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756885</v>
+        <v>778.469760535706</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686219</v>
+        <v>0.627731916355434</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697963673</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639878</v>
+        <v>0.6277319163529693</v>
       </c>
       <c r="M4">
-        <v>2.898438697959885</v>
+        <v>2.898438697959277</v>
       </c>
       <c r="N4">
-        <v>0.899313132462415</v>
+        <v>1.094650495642026</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.093333709638004</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043305</v>
+        <v>30.24110380257817</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>149.8774750551024</v>
       </c>
       <c r="T4">
-        <v>1.354590696141221</v>
+        <v>0.04765786957969151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654363</v>
+        <v>1.094650495642177</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.093333709638061</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063195</v>
+        <v>30.24110380257923</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>149.8774750551098</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654364</v>
+        <v>1.094650495642177</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.093333709638061</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063195</v>
+        <v>30.24110380257923</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>149.8774750551098</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.099132701712315</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023841895</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.09905639759993</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>30.03069701128925</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>149.9761850599765</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9449951101369803</v>
+        <v>1.09529003526656</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.095180827586948</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069109</v>
+        <v>30.14893003012513</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>149.8609080801774</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141221</v>
+        <v>0.04765786957969151</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117793</v>
+        <v>0.5503056766167794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567653</v>
+        <v>5.240325787532509</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756885</v>
+        <v>778.469760535706</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686219</v>
+        <v>0.627731916355434</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697963673</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639878</v>
+        <v>0.6277319163529693</v>
       </c>
       <c r="M4">
-        <v>2.898438697959885</v>
+        <v>2.898438697959277</v>
       </c>
       <c r="N4">
-        <v>0.899313132462415</v>
+        <v>1.094650495642026</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.093333709638004</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043305</v>
+        <v>30.24110380257817</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>149.8774750551024</v>
       </c>
       <c r="T4">
-        <v>1.354590696141221</v>
+        <v>0.04765786957969151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654363</v>
+        <v>1.094650495642177</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.093333709638061</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063195</v>
+        <v>30.24110380257923</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>149.8774750551098</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654364</v>
+        <v>1.094650495642177</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.100000023841899</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.093333709638061</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063195</v>
+        <v>30.24110380257923</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>149.8774750551098</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833735</v>
+        <v>0.9990939043957222</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704616</v>
+        <v>0.9990011948690903</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217287</v>
+        <v>30.03614049618532</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>149.973056997567</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580279</v>
+        <v>0.9954666002267404</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>1.000000000000048</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015826</v>
+        <v>0.9952947300173646</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024821</v>
+        <v>30.16214914445166</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999697</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>149.8548806514491</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462476</v>
+        <v>0.04415464499988438</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458241</v>
+        <v>0.5098539235331122</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487453</v>
+        <v>10.06074675024547</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262162</v>
+        <v>778.4293998562364</v>
       </c>
       <c r="J4">
-        <v>1.113751880274869</v>
+        <v>1.113751880361669</v>
       </c>
       <c r="K4">
-        <v>3.006397543745615</v>
+        <v>3.006397543749229</v>
       </c>
       <c r="L4">
-        <v>1.11375188023327</v>
+        <v>1.11375188022298</v>
       </c>
       <c r="M4">
-        <v>3.006397543745374</v>
+        <v>3.006397543745165</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747503</v>
+        <v>0.9954110860337793</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421944</v>
+        <v>0.9930428101126118</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680924</v>
+        <v>30.30948141269463</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>111.2809607241675</v>
+        <v>149.9250880654869</v>
       </c>
       <c r="T4">
-        <v>3.902567407462475</v>
+        <v>0.04415464499988437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946171</v>
+        <v>0.9954110860339926</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323435</v>
+        <v>0.9930428101127816</v>
       </c>
       <c r="Q5">
-        <v>45.38254385708335</v>
+        <v>30.30948141269037</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>111.2809607254597</v>
+        <v>149.9250880654955</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946171</v>
+        <v>0.9954110860339926</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323435</v>
+        <v>0.9930428101127816</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708336</v>
+        <v>30.30948141269037</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>111.2809607254597</v>
+        <v>149.9250880654955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833735</v>
+        <v>0.9990939043957222</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704616</v>
+        <v>0.9990011948690903</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217287</v>
+        <v>30.03614049618532</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>149.973056997567</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580279</v>
+        <v>0.9954666002267404</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>1.000000000000048</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015826</v>
+        <v>0.9952947300173646</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024821</v>
+        <v>30.16214914445166</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999697</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>149.8548806514491</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462476</v>
+        <v>0.04415464499988438</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458241</v>
+        <v>0.5098539235331122</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487453</v>
+        <v>10.06074675024547</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262162</v>
+        <v>778.4293998562364</v>
       </c>
       <c r="J4">
-        <v>1.113751880274869</v>
+        <v>1.113751880361669</v>
       </c>
       <c r="K4">
-        <v>3.006397543745615</v>
+        <v>3.006397543749229</v>
       </c>
       <c r="L4">
-        <v>1.11375188023327</v>
+        <v>1.11375188022298</v>
       </c>
       <c r="M4">
-        <v>3.006397543745374</v>
+        <v>3.006397543745165</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747503</v>
+        <v>0.9954110860337793</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421944</v>
+        <v>0.9930428101126118</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680924</v>
+        <v>30.30948141269463</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>111.2809607241675</v>
+        <v>149.9250880654869</v>
       </c>
       <c r="T4">
-        <v>3.902567407462475</v>
+        <v>0.04415464499988437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946171</v>
+        <v>0.9954110860339926</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323435</v>
+        <v>0.9930428101127816</v>
       </c>
       <c r="Q5">
-        <v>45.38254385708335</v>
+        <v>30.30948141269037</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>111.2809607254597</v>
+        <v>149.9250880654955</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946171</v>
+        <v>0.9954110860339926</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>1.000000000000049</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323435</v>
+        <v>0.9930428101127816</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708336</v>
+        <v>30.30948141269037</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>111.2809607254597</v>
+        <v>149.9250880654955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9991000440414136</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985385</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.989571189974962</v>
+        <v>0.999029062708874</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>30.03449903853528</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>149.9725428923071</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042646</v>
+        <v>0.9955031657463954</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9954317088611071</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661014</v>
+        <v>30.1542735037966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999785</v>
       </c>
       <c r="S3">
-        <v>142.1430813749405</v>
+        <v>149.8528070249571</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>0.0433062618053178</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>0.5000576382179328</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487453</v>
+        <v>10.06074675024547</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262162</v>
+        <v>778.4293998562364</v>
       </c>
       <c r="J4">
-        <v>1.113751880274869</v>
+        <v>1.113751880361669</v>
       </c>
       <c r="K4">
-        <v>3.006397543745615</v>
+        <v>3.006397543749229</v>
       </c>
       <c r="L4">
-        <v>1.11375188023327</v>
+        <v>1.11375188022298</v>
       </c>
       <c r="M4">
-        <v>3.006397543745374</v>
+        <v>3.006397543745165</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.9954019841392475</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740589</v>
+        <v>0.993201302694423</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544031</v>
+        <v>30.29868955048889</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999659</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>149.9192857798847</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>0.0433062618053178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553683</v>
+        <v>0.995401984139458</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9932013026945867</v>
       </c>
       <c r="Q5">
-        <v>31.49316412559806</v>
+        <v>30.29868955048493</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S5">
-        <v>140.5435759543915</v>
+        <v>149.9192857798933</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553684</v>
+        <v>0.995401984139458</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P6">
-        <v>0.902109445473709</v>
+        <v>0.9932013026945867</v>
       </c>
       <c r="Q6">
-        <v>31.49316412559807</v>
+        <v>30.29868955048493</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999669</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S6">
-        <v>140.5435759543915</v>
+        <v>149.9192857798933</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9991000440414136</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985385</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.989571189974962</v>
+        <v>0.999029062708874</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>30.03449903853528</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>149.9725428923071</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042646</v>
+        <v>0.9955031657463954</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9954317088611071</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661014</v>
+        <v>30.1542735037966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999785</v>
       </c>
       <c r="S3">
-        <v>142.1430813749405</v>
+        <v>149.8528070249571</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>0.0433062618053178</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>0.5000576382179328</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487453</v>
+        <v>10.06074675024547</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262162</v>
+        <v>778.4293998562364</v>
       </c>
       <c r="J4">
-        <v>1.113751880274869</v>
+        <v>1.113751880361669</v>
       </c>
       <c r="K4">
-        <v>3.006397543745615</v>
+        <v>3.006397543749229</v>
       </c>
       <c r="L4">
-        <v>1.11375188023327</v>
+        <v>1.11375188022298</v>
       </c>
       <c r="M4">
-        <v>3.006397543745374</v>
+        <v>3.006397543745165</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.9954019841392475</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000045</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740589</v>
+        <v>0.993201302694423</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544031</v>
+        <v>30.29868955048889</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999659</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>149.9192857798847</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>0.0433062618053178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553683</v>
+        <v>0.995401984139458</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9932013026945867</v>
       </c>
       <c r="Q5">
-        <v>31.49316412559806</v>
+        <v>30.29868955048493</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S5">
-        <v>140.5435759543915</v>
+        <v>149.9192857798933</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553684</v>
+        <v>0.995401984139458</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>1.000000000000044</v>
       </c>
       <c r="P6">
-        <v>0.902109445473709</v>
+        <v>0.9932013026945867</v>
       </c>
       <c r="Q6">
-        <v>31.49316412559807</v>
+        <v>30.29868955048493</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999669</v>
+        <v>-89.99999999999784</v>
       </c>
       <c r="S6">
-        <v>140.5435759543915</v>
+        <v>149.9192857798933</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.069864615170726</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600879</v>
+        <v>0.9380319009574507</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.053243707392639</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>25.99712569614831</v>
       </c>
       <c r="R2">
-        <v>-91.13019952196431</v>
+        <v>-91.13019952201513</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>153.5641213168997</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466636</v>
+        <v>1.030218697790708</v>
       </c>
       <c r="O3">
-        <v>0.291705603751569</v>
+        <v>0.2917056037512371</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791415</v>
+        <v>0.8892839513909073</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617233</v>
+        <v>7.104083475946696</v>
       </c>
       <c r="R3">
-        <v>-119.171377354173</v>
+        <v>-119.1713773550662</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>171.7700365807354</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037348</v>
+        <v>3.706673430589565</v>
       </c>
       <c r="D4">
-        <v>3.316348281737784</v>
+        <v>3.711673952615321</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>42.80097805897838</v>
       </c>
       <c r="G4">
-        <v>38.29389146375726</v>
+        <v>42.85871911373156</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030892</v>
+        <v>0.9508552554155933</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.950855255417254</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168719</v>
+        <v>0.02234002326041165</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>-179.9776599767079</v>
       </c>
       <c r="T4">
-        <v>6.200555778018471</v>
+        <v>0.02442827610755512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.9508552554067039</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194587</v>
+        <v>0.9508552554262062</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045766</v>
+        <v>0.0223400237359557</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990193</v>
+        <v>-179.9776599771806</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.9508552554067039</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194587</v>
+        <v>0.9508552554262062</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045766</v>
+        <v>0.0223400237359557</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>-179.9776599771806</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.069864615170726</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600879</v>
+        <v>0.9380319009574507</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.053243707392639</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>25.99712569614831</v>
       </c>
       <c r="R2">
-        <v>-91.13019952196431</v>
+        <v>-91.13019952201513</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>153.5641213168997</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466636</v>
+        <v>1.030218697790708</v>
       </c>
       <c r="O3">
-        <v>0.291705603751569</v>
+        <v>0.2917056037512371</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791415</v>
+        <v>0.8892839513909073</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617233</v>
+        <v>7.104083475946696</v>
       </c>
       <c r="R3">
-        <v>-119.171377354173</v>
+        <v>-119.1713773550662</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>171.7700365807354</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037348</v>
+        <v>3.706673430589565</v>
       </c>
       <c r="D4">
-        <v>3.316348281737784</v>
+        <v>3.711673952615321</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>42.80097805897838</v>
       </c>
       <c r="G4">
-        <v>38.29389146375726</v>
+        <v>42.85871911373156</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030892</v>
+        <v>0.9508552554155933</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.950855255417254</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168719</v>
+        <v>0.02234002326041165</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>-179.9776599767079</v>
       </c>
       <c r="T4">
-        <v>6.200555778018471</v>
+        <v>0.02442827610755512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.9508552554067039</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194587</v>
+        <v>0.9508552554262062</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045766</v>
+        <v>0.0223400237359557</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990193</v>
+        <v>-179.9776599771806</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.9508552554067039</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194587</v>
+        <v>0.9508552554262062</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045766</v>
+        <v>0.0223400237359557</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>-179.9776599771806</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.099956386932239</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443489705</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.078273915518662</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.70803198200917</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127376</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>150.6617494467381</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.038372779870299</v>
+        <v>1.11284808262323</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401246</v>
+        <v>0.8910570420388183</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.983992303889954</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679279</v>
+        <v>23.28297003097662</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487199</v>
+        <v>-99.16867920488973</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>153.4519068935899</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.127410347267049</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.141119968178092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>13.018213349636</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.17651841610558</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485564</v>
+        <v>1.091555326864592</v>
       </c>
       <c r="O4">
-        <v>0.802015620938143</v>
+        <v>0.8020156209369544</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775103</v>
+        <v>0.9687233689820798</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702198</v>
+        <v>21.26144918364184</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013553</v>
+        <v>-99.52967390016261</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>155.9282413782467</v>
       </c>
       <c r="T4">
-        <v>1.39280229978566</v>
+        <v>0.02419289103998223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467661</v>
+        <v>1.091555326861819</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392322</v>
+        <v>0.8020156209380437</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802837</v>
+        <v>0.9687233689857161</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726498</v>
+        <v>21.26144918376361</v>
       </c>
       <c r="R5">
-        <v>-99.5296738996216</v>
+        <v>-99.52967389964876</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>155.9282413782709</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467661</v>
+        <v>1.091555326861819</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392322</v>
+        <v>0.8020156209380437</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802837</v>
+        <v>0.9687233689857161</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726497</v>
+        <v>21.26144918376361</v>
       </c>
       <c r="R6">
-        <v>-99.5296738996216</v>
+        <v>-99.52967389964876</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>155.9282413782709</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.099956386932239</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443489705</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.078273915518662</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.70803198200917</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127376</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>150.6617494467381</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.038372779870299</v>
+        <v>1.11284808262323</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401246</v>
+        <v>0.8910570420388183</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.983992303889954</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679279</v>
+        <v>23.28297003097662</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487199</v>
+        <v>-99.16867920488973</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>153.4519068935899</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.127410347267049</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.141119968178092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>13.018213349636</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.17651841610558</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485564</v>
+        <v>1.091555326864592</v>
       </c>
       <c r="O4">
-        <v>0.802015620938143</v>
+        <v>0.8020156209369544</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775103</v>
+        <v>0.9687233689820798</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702198</v>
+        <v>21.26144918364184</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013553</v>
+        <v>-99.52967390016261</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>155.9282413782467</v>
       </c>
       <c r="T4">
-        <v>1.39280229978566</v>
+        <v>0.02419289103998223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467661</v>
+        <v>1.091555326861819</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392322</v>
+        <v>0.8020156209380437</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802837</v>
+        <v>0.9687233689857161</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726498</v>
+        <v>21.26144918376361</v>
       </c>
       <c r="R5">
-        <v>-99.5296738996216</v>
+        <v>-99.52967389964876</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>155.9282413782709</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467661</v>
+        <v>1.091555326861819</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392322</v>
+        <v>0.8020156209380437</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802837</v>
+        <v>0.9687233689857161</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726497</v>
+        <v>21.26144918376361</v>
       </c>
       <c r="R6">
-        <v>-99.5296738996216</v>
+        <v>-99.52967389964876</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>155.9282413782709</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9819578062965617</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.8500049525413966</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9466019523408975</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627334</v>
+        <v>25.61815314995591</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631331479</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>153.3544210268813</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.865479553953491</v>
+        <v>0.9887482274048121</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835029763</v>
       </c>
       <c r="P3">
-        <v>0.7173623910941315</v>
+        <v>0.7636437763234595</v>
       </c>
       <c r="Q3">
-        <v>-3.40066276128366</v>
+        <v>8.164541439670073</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241611</v>
+        <v>-129.0915432241861</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>169.4111760329222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104195</v>
+        <v>3.115388479236454</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>3.122818269216491</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191627</v>
+        <v>35.97340754234851</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>36.05919936724845</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593484</v>
+        <v>0.8643483726400463</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604604</v>
+        <v>0.8643483726404266</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820447</v>
+        <v>0.03947530685745033</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512649</v>
+        <v>-179.9605246934807</v>
       </c>
       <c r="T4">
-        <v>3.705973963892703</v>
+        <v>0.02220564103087401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477886</v>
+        <v>0.8643483726319989</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724258</v>
+        <v>0.8643483726485854</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647821</v>
+        <v>0.03947530776853865</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.063100351154</v>
+        <v>-179.9605246943904</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477886</v>
+        <v>0.8643483726319989</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724261</v>
+        <v>0.8643483726485854</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647822</v>
+        <v>0.03947530776853865</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>-179.9605246943904</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9819578062965617</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.8500049525413966</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9466019523408975</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627334</v>
+        <v>25.61815314995591</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631331479</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>153.3544210268813</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.865479553953491</v>
+        <v>0.9887482274048121</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835029763</v>
       </c>
       <c r="P3">
-        <v>0.7173623910941315</v>
+        <v>0.7636437763234595</v>
       </c>
       <c r="Q3">
-        <v>-3.40066276128366</v>
+        <v>8.164541439670073</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241611</v>
+        <v>-129.0915432241861</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>169.4111760329222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104195</v>
+        <v>3.115388479236454</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>3.122818269216491</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191627</v>
+        <v>35.97340754234851</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>36.05919936724845</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593484</v>
+        <v>0.8643483726400463</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604604</v>
+        <v>0.8643483726404266</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820447</v>
+        <v>0.03947530685745033</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512649</v>
+        <v>-179.9605246934807</v>
       </c>
       <c r="T4">
-        <v>3.705973963892703</v>
+        <v>0.02220564103087401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477886</v>
+        <v>0.8643483726319989</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724258</v>
+        <v>0.8643483726485854</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647821</v>
+        <v>0.03947530776853865</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.063100351154</v>
+        <v>-179.9605246943904</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477886</v>
+        <v>0.8643483726319989</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724261</v>
+        <v>0.8643483726485854</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647822</v>
+        <v>0.03947530776853865</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>-179.9605246943904</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>1.000793593486011</v>
       </c>
       <c r="O2">
-        <v>0.958104579130341</v>
+        <v>0.9581045791311121</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9779801189700965</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.58855826024796</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.5578997189786</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>150.6833478612166</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162777</v>
+        <v>1.015557269809419</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031202815</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625256</v>
+        <v>0.8917859829072606</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481584</v>
+        <v>23.27155728819582</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736534</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>153.2659088393289</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>0.9862492363034568</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>0.9991891011248474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.4286508313211</v>
+        <v>11.38822524135727</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.53764193011542</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193015</v>
+        <v>0.9753439116680872</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934287</v>
+        <v>0.7019303077933402</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627846</v>
+        <v>0.8884204100501948</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464316</v>
+        <v>20.93057026171275</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042473</v>
+        <v>-97.63434507041663</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>156.9897283683273</v>
       </c>
       <c r="T4">
-        <v>1.143601227408609</v>
+        <v>0.021990358634417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191701</v>
+        <v>0.9753439116658633</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992135</v>
+        <v>0.701930307799125</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677864</v>
+        <v>0.8884204100550285</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505616</v>
+        <v>20.93057026197857</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506973587</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>156.9897283682208</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191701</v>
+        <v>0.9753439116658633</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992135</v>
+        <v>0.701930307799125</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677864</v>
+        <v>0.8884204100550285</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505616</v>
+        <v>20.93057026197857</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506973587</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>156.9897283682208</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>1.000793593486011</v>
       </c>
       <c r="O2">
-        <v>0.958104579130341</v>
+        <v>0.9581045791311121</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9779801189700965</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.58855826024796</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.5578997189786</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>150.6833478612166</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162777</v>
+        <v>1.015557269809419</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031202815</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625256</v>
+        <v>0.8917859829072606</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481584</v>
+        <v>23.27155728819582</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736534</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>153.2659088393289</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>0.9862492363034568</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>0.9991891011248474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.4286508313211</v>
+        <v>11.38822524135727</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.53764193011542</v>
       </c>
       <c r="H4">
-        <v>3.551638344487405</v>
+        <v>10.06074675024429</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264698</v>
+        <v>778.4293998562355</v>
       </c>
       <c r="J4">
-        <v>1.113751880246194</v>
+        <v>1.113751880205831</v>
       </c>
       <c r="K4">
-        <v>3.006397543768194</v>
+        <v>3.006397543691229</v>
       </c>
       <c r="L4">
-        <v>1.113751880233261</v>
+        <v>1.113751880238667</v>
       </c>
       <c r="M4">
-        <v>3.006397543745575</v>
+        <v>3.006397543736766</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193015</v>
+        <v>0.9753439116680872</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934287</v>
+        <v>0.7019303077933402</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627846</v>
+        <v>0.8884204100501948</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464316</v>
+        <v>20.93057026171275</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042473</v>
+        <v>-97.63434507041663</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>156.9897283683273</v>
       </c>
       <c r="T4">
-        <v>1.143601227408609</v>
+        <v>0.021990358634417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191701</v>
+        <v>0.9753439116658633</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992135</v>
+        <v>0.701930307799125</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677864</v>
+        <v>0.8884204100550285</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505616</v>
+        <v>20.93057026197857</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506973587</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>156.9897283682208</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191701</v>
+        <v>0.9753439116658633</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992135</v>
+        <v>0.701930307799125</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677864</v>
+        <v>0.8884204100550285</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505616</v>
+        <v>20.93057026197857</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506973587</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>156.9897283682208</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,19 +10541,19 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574443</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468704</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739709</v>
+        <v>25.98965116739704</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201606</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214669995</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.2917056037512894</v>
       </c>
       <c r="P3">
-        <v>0.890687633264438</v>
+        <v>0.8906876332644356</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062569</v>
+        <v>7.09132438906234</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550814</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.70915442393711</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.70915442393711</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251963</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251963</v>
       </c>
       <c r="H4">
-        <v>1.84982568956763</v>
+        <v>5.240325787532264</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759273</v>
+        <v>778.4697605357075</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571272</v>
+        <v>0.6277319163167956</v>
       </c>
       <c r="K4">
-        <v>2.898438697948315</v>
+        <v>2.898438697871284</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639696</v>
+        <v>0.6277319163700907</v>
       </c>
       <c r="M4">
-        <v>2.898438697960009</v>
+        <v>2.898438697950664</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032092</v>
+        <v>0.952627964803211</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047552</v>
+        <v>0.952627964804754</v>
       </c>
       <c r="Q4">
-        <v>-1.248457903435956E-11</v>
+        <v>-1.281026669688826E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999808</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942852</v>
+        <v>0.9526279647942872</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136788</v>
+        <v>0.9526279648136777</v>
       </c>
       <c r="Q5">
-        <v>4.605474918434074E-10</v>
+        <v>4.602235298141837E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995315</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942872</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136791</v>
+        <v>0.9526279648136777</v>
       </c>
       <c r="Q6">
-        <v>4.605550451296864E-10</v>
+        <v>4.602235298141837E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995315</v>
       </c>
     </row>
   </sheetData>
